--- a/document/Bill of Material.xlsx
+++ b/document/Bill of Material.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokhw\Desktop\GitHub\drone_with_gyroscopic_guard\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8473C61-6282-4B3D-8FC4-E3F829A4A7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AAA86-4C3C-4C27-9FEA-ABD2BE1225DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1391A0CE-743C-48E9-85D5-974B0FAD68A5}"/>
+    <workbookView xWindow="28680" yWindow="-7680" windowWidth="16440" windowHeight="28440" xr2:uid="{1391A0CE-743C-48E9-85D5-974B0FAD68A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>quadcopter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeAct Black Pill V3.0 (STM32F411CEU6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nrf24l01+pa+lna rf transceiver module</t>
+  </si>
+  <si>
+    <t>HAKRC BLHeli_32 Bit 35A 2-5S ESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matek PDB-XT60 3-4S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSD1306 OLED 128x64 0.96inch I2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lm358n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뱅굿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SparkFun 9Dof IMU Breakout - ICM-20948 (Qwiic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nrf24l01+pa+lna rf transceiver module</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZOP Power 14.8V 1800mAh 65C 4S Lipo Battery XT60 Plug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iFlight XING E 2207 2450KV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joystick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +126,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -59,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -67,19 +169,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE6E6E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE6E6E6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE6E6E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFE6E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,16 +527,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6F4712-FA5E-403A-8419-F4A2870B00EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="61.25" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="52.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>14.8</v>
+      </c>
+      <c r="I6">
+        <v>16.8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>$H$6/G7</f>
+        <v>14.8</v>
+      </c>
+      <c r="I7">
+        <f>$I$6/G7</f>
+        <v>16.8</v>
+      </c>
+      <c r="J7">
+        <f>I7-H7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H16" si="0">$H$6/G8</f>
+        <v>7.4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I16" si="1">$I$6/G8</f>
+        <v>8.4</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J16" si="2">I8-H8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>2.96</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.4666666666666668</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2.1142857142857143</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.28571428571428559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.6444444444444446</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.2222222222222221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000018</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{45B1F295-C408-4BE5-977E-B56018F3A51C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>